--- a/Code/Rayyan/Feature Engineering/ipynb code/fe_qua.xlsx
+++ b/Code/Rayyan/Feature Engineering/ipynb code/fe_qua.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Income From Operations</t>
+          <t>Net Sales/Income from operations</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
